--- a/SnipeBot/snipe_scores.xlsx
+++ b/SnipeBot/snipe_scores.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,40 +449,8 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2022-10-26 13:06:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7.170124070332662e+17</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>mcmzoe</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1.855420033400832e+17</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>tangia</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>2022-10-26 15:56:10</t>
+        </is>
       </c>
     </row>
   </sheetData>
